--- a/outputs-HGR-r202-archive/f__Peptostreptococcaceae.xlsx
+++ b/outputs-HGR-r202-archive/f__Peptostreptococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,44 +499,352 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT25429.fa</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0001161187098641203</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3375537752363922</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.876392087183043e-06</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.632730769288377e-05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0004247387306391607</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0004312413320542567</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.002757412263511772</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6586615100277585</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6586615100277585</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>g__Terrisporobacter</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>g__Terrisporobacter</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT30539.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.004988653267735906</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1442081357704421</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0003381728358450314</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0003917443835891789</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.004579497887763636</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006587718642567897</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01162078558482822</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8272852916272281</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8272852916272281</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>g__Terrisporobacter</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>g__Terrisporobacter</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT32544.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.04302555443032e-05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5835253975811087</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.333772000862312e-07</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.588968055731193e-05</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0002098667123155597</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0001094422141574709</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.007194975951057518</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4088635642280593</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5835253975811087</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>g__GCA-900066495</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>g__GCA-900066495</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44190.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.001043055964462028</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1065710652265113</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.000698215239215151</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0002652024919012892</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.002998658823059914</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01107359323701635</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.00527409989671241</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8720761091211215</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8720761091211215</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>g__Terrisporobacter</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>g__Terrisporobacter</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT44598.fa</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B6" t="n">
         <v>0.02093453778093218</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C6" t="n">
         <v>0.2365663271633392</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D6" t="n">
         <v>0.05833908912843729</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E6" t="n">
         <v>0.06079360040260021</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F6" t="n">
         <v>0.01914924809416653</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G6" t="n">
         <v>0.0002884440280362653</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H6" t="n">
         <v>0.531598451611504</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I6" t="n">
         <v>0.07233030179098429</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J6" t="n">
         <v>0.531598451611504</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>g__Romboutsia</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>g__Romboutsia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT56457.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0008024529210328089</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2670278290007201</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.554374094889125e-05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.568700667197349e-05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.002353378892070749</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.004701166315230735</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.003759029129442887</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7212349129938819</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7212349129938819</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>g__Terrisporobacter</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>g__Terrisporobacter</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58695.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.007672474862095388</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.07980807694049</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.001185724538680015</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.014235894879851e-05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.001627950153799406</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01290616761492669</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0009432756091127345</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.895776187921947</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.895776187921947</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>g__Terrisporobacter</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>g__Terrisporobacter</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT66161.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0007669148399584079</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5213827587689047</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.828638910138277e-06</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.00013671675215724</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0008917292209083694</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0004742692527444682</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.008987803119281761</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.467350979407135</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5213827587689047</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>g__GCA-900066495</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>g__GCA-900066495</t>
         </is>
       </c>
     </row>
